--- a/Test Documents/Test Documents for Suppliers/Test Design For Suppliers.xlsx
+++ b/Test Documents/Test Documents for Suppliers/Test Design For Suppliers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Test Case</t>
   </si>
@@ -217,7 +217,10 @@
     <t>Check if  Flight,Visa,Tours,Bookings are displayed</t>
   </si>
   <si>
-    <t>Flights,Visa,Tours,Bookings is displayed</t>
+    <t>Flights,Visa are not displayed and Tours,Bookings are displayed</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>is displayed and is clickable</t>
@@ -232,7 +235,7 @@
     <t>Supplier needs to click on Flight</t>
   </si>
   <si>
-    <t>Flights is clickable</t>
+    <t>Flights is not present</t>
   </si>
   <si>
     <t>Supplier needs to click on Visa</t>
@@ -241,7 +244,7 @@
     <t>Visa to be clickable</t>
   </si>
   <si>
-    <t>Visa is clickable</t>
+    <t>Visa is not present</t>
   </si>
   <si>
     <t>Supplier needs to click on Tours</t>
@@ -983,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -991,22 +994,22 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="M22" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1014,19 +1017,19 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="K23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1034,19 +1037,19 @@
         <v>4.0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="K24" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1057,16 +1060,16 @@
         <v>53</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
